--- a/Load Analysis.xlsx
+++ b/Load Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\GDP-Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D461F00-9E75-4130-AA8C-D8205C134D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB06BFEE-536B-43A5-B9D6-A7D3C972E141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9FFD99EC-F113-4087-9376-0C0D1797355D}"/>
+    <workbookView xWindow="28680" yWindow="-9735" windowWidth="29040" windowHeight="15840" xr2:uid="{9FFD99EC-F113-4087-9376-0C0D1797355D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Component</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Rear</t>
   </si>
   <si>
-    <t>Max Current Draw (A)</t>
-  </si>
-  <si>
     <t>Volz Servo</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>Charge required (Ah)</t>
+  </si>
+  <si>
+    <t>Total Current Draw (A)</t>
+  </si>
+  <si>
+    <t>Estimated Max Current Draw (A)</t>
   </si>
 </sst>
 </file>
@@ -171,21 +174,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,11 +242,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -260,18 +279,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -289,16 +310,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -615,18 +626,19 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
@@ -816,8 +828,8 @@
         <v>64.449999999999989</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -825,12 +837,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -842,18 +854,21 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="D21" s="3">
         <v>28</v>
@@ -863,17 +878,21 @@
       </c>
       <c r="F21" s="3">
         <f>D21*C21</f>
-        <v>218.4</v>
+        <v>126</v>
       </c>
       <c r="G21" s="3">
         <f>E21*C21*C18/3600</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.15</v>
+      </c>
+      <c r="H21" s="3">
+        <f>C21*E21</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>1.1000000000000001</v>
@@ -892,16 +911,20 @@
         <f>E22*C22*C18/3600</f>
         <v>3.6666666666666667E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="H22" s="3">
+        <f t="shared" ref="H22:H23" si="1">C22*E22</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="10">
-        <v>8</v>
+      <c r="C23" s="14">
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>28</v>
@@ -911,24 +934,29 @@
       </c>
       <c r="F23" s="3">
         <f>D23*C23</f>
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="G23" s="3">
         <f>E23*C23*C18/3600</f>
-        <v>0.13333333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="6">
-        <f>SUM(C21:C23)</f>
-        <v>16.899999999999999</v>
-      </c>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="13"/>
       <c r="G24" s="6">
         <f>SUM(G21:G23)</f>
-        <v>0.43000000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>0.37</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUM(H21:H23)</f>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A21:A22"/>

--- a/Load Analysis.xlsx
+++ b/Load Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\GDP-Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB06BFEE-536B-43A5-B9D6-A7D3C972E141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2719B1DA-007D-4894-AD33-DCA34530978E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-9735" windowWidth="29040" windowHeight="15840" xr2:uid="{9FFD99EC-F113-4087-9376-0C0D1797355D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9FFD99EC-F113-4087-9376-0C0D1797355D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Component</t>
   </si>
   <si>
     <t>Power</t>
-  </si>
-  <si>
-    <t>Maximum Current Draw (mA)</t>
   </si>
   <si>
     <t>Voltage (V)</t>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>Estimated Max Current Draw (A)</t>
+  </si>
+  <si>
+    <t>Total Power Usage (W)</t>
+  </si>
+  <si>
+    <t>Maximum Current Draw per component (mA)</t>
+  </si>
+  <si>
+    <t>Total maximum current draw (mA)</t>
   </si>
 </sst>
 </file>
@@ -174,15 +180,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,28 +239,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -268,26 +258,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,362 +619,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E38A92-8BD6-459E-8ECD-54FD77FB510D}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f>C9*E9</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9*(C9/1000)*D9</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f>C10*E10</f>
+        <v>3.9</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10*(C10/1000)*D10</f>
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <f>C11*E11</f>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11*(C11/1000)*D11</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <f>C12*E12</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12*(C12/1000)*D12</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
+        <f>C13*E13</f>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13*(C13/1000)*D13</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f>C14*E14</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14*(C14/1000)*D14</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="14">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <f>C15*E15</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15*(C15/1000)*D15</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="9"/>
+      <c r="F16" s="2">
+        <f>SUM(F9:F15)</f>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="F20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" ref="F9:F15" si="0">E9*(C9/1000)*D9</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.95E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="7">
-        <f>SUM(C9:C15)</f>
-        <v>64.449999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>28</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f>D21*C21</f>
         <v>126</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f>E21*C21*C18/3600</f>
         <v>0.15</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f>C21*E21</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="I21" s="2">
+        <f>C21*D21*E21</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>28</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
-        <f>D22*C22</f>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22:F23" si="0">D22*C22</f>
         <v>30.800000000000004</v>
       </c>
-      <c r="G22" s="3">
-        <f>E22*C22*C18/3600</f>
+      <c r="G22" s="2">
+        <f>E22*C22*$C$18/3600</f>
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" ref="H22:H23" si="1">C22*E22</f>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I23" si="2">C22*D22*E22</f>
+        <v>61.600000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="G23" s="2">
+        <f>E23*C23*$C$18/3600</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="4"/>
+      <c r="G24" s="5">
+        <f>SUM(G21:G23)</f>
+        <v>0.26166666666666666</v>
+      </c>
+      <c r="H24" s="5">
+        <f>SUM(H21:H23)</f>
+        <v>15.7</v>
+      </c>
+      <c r="I24" s="5">
+        <f>SUM(I21:I23)</f>
+        <v>439.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="C26" s="12">
         <v>11</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D26" s="13">
         <v>28</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <f>D23*C23</f>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <f>D26*C26</f>
         <v>308</v>
       </c>
-      <c r="G23" s="3">
-        <f>E23*C23*C18/3600</f>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="13"/>
-      <c r="G24" s="6">
-        <f>SUM(G21:G23)</f>
-        <v>0.37</v>
-      </c>
-      <c r="H24" s="6">
-        <f>SUM(H21:H23)</f>
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="G26" s="13">
+        <f>E26*C26*C18/3600</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <f>C26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <f>C26*D26*E26</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A21:A22"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Load Analysis.xlsx
+++ b/Load Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\GDP-Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2719B1DA-007D-4894-AD33-DCA34530978E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12B8A0-3AF5-4C34-B696-1157EC109E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9FFD99EC-F113-4087-9376-0C0D1797355D}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Component</t>
   </si>
@@ -151,6 +150,9 @@
   </si>
   <si>
     <t>Total maximum current draw (mA)</t>
+  </si>
+  <si>
+    <t>Arduino and Electronics</t>
   </si>
 </sst>
 </file>
@@ -258,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -277,39 +279,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -619,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E38A92-8BD6-459E-8ECD-54FD77FB510D}">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,11 +690,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <f>C9*E9</f>
+        <f t="shared" ref="F9:F15" si="0">C9*E9</f>
         <v>10</v>
       </c>
       <c r="G9" s="2">
-        <f>E9*(C9/1000)*D9</f>
+        <f t="shared" ref="G9:G15" si="1">E9*(C9/1000)*D9</f>
         <v>0.05</v>
       </c>
     </row>
@@ -728,11 +712,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
       <c r="G10" s="2">
-        <f>E10*(C10/1000)*D10</f>
+        <f t="shared" si="1"/>
         <v>1.95E-2</v>
       </c>
     </row>
@@ -750,11 +734,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <f>C11*E11</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G11" s="2">
-        <f>E11*(C11/1000)*D11</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I11" t="s">
@@ -775,11 +759,11 @@
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <f>C12*E12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G12" s="2">
-        <f>E12*(C12/1000)*D12</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
@@ -797,11 +781,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <f>C13*E13</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="G13" s="2">
-        <f>E13*(C13/1000)*D13</f>
+        <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
     </row>
@@ -819,11 +803,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <f>C14*E14</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G14" s="2">
-        <f>E14*(C14/1000)*D14</f>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -841,11 +825,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <f>C15*E15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G15" s="2">
-        <f>E15*(C15/1000)*D15</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -865,6 +849,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
       <c r="B20" s="15" t="s">
         <v>0</v>
       </c>
@@ -891,7 +876,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -924,7 +909,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
@@ -938,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ref="F22:F23" si="0">D22*C22</f>
+        <f t="shared" ref="F22:F23" si="2">D22*C22</f>
         <v>30.800000000000004</v>
       </c>
       <c r="G22" s="2">
@@ -946,22 +931,22 @@
         <v>3.6666666666666667E-2</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="H22:H23" si="1">C22*E22</f>
+        <f t="shared" ref="H22:H23" si="3">C22*E22</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:I23" si="2">C22*D22*E22</f>
+        <f t="shared" ref="I22:I23" si="4">C22*D22*E22</f>
         <v>61.600000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>4.5</v>
       </c>
       <c r="D23" s="2">
@@ -971,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="G23" s="2">
@@ -979,60 +964,91 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="4"/>
-      <c r="G24" s="5">
-        <f>SUM(G21:G23)</f>
-        <v>0.26166666666666666</v>
-      </c>
-      <c r="H24" s="5">
-        <f>SUM(H21:H23)</f>
-        <v>15.7</v>
-      </c>
-      <c r="I24" s="5">
-        <f>SUM(I21:I23)</f>
-        <v>439.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>5</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24" si="5">D24*C24</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <f>E24*C24*$C$18/3600</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24" si="6">C24*E24</f>
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24" si="7">C24*D24*E24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="4"/>
+      <c r="G25" s="5">
+        <f>SUM(G21:G24)</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(H21:H24)</f>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <f>SUM(I21:I24)</f>
+        <v>440.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="12">
         <v>11</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <v>28</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="13">
-        <f>D26*C26</f>
+      <c r="F27" s="13">
+        <f>D27*C27</f>
         <v>308</v>
       </c>
-      <c r="G26" s="13">
-        <f>E26*C26*C18/3600</f>
+      <c r="G27" s="13">
+        <f>E27*C27*C18/3600</f>
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <f>C26*E26</f>
+      <c r="H27" s="13">
+        <f>C27*E27</f>
         <v>0</v>
       </c>
-      <c r="I26" s="13">
-        <f>C26*D26*E26</f>
+      <c r="I27" s="13">
+        <f>C27*D27*E27</f>
         <v>0</v>
       </c>
     </row>
